--- a/report.xlsx
+++ b/report.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -430,9 +430,23 @@
         <v>58</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Thu Jun 15 2023 07:44:20 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="B3">
+        <v>231</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -444,9 +444,23 @@
         <v>58</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Thu Jun 15 2023 07:45:44 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="B4">
+        <v>231</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -458,9 +458,23 @@
         <v>58</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Thu Jun 15 2023 07:48:50 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="B5">
+        <v>231</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -472,9 +472,23 @@
         <v>58</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Thu Jun 15 2023 07:49:41 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="B6">
+        <v>231</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -486,9 +486,23 @@
         <v>58</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Thu Jun 15 2023 07:50:55 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="B7">
+        <v>231</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -500,9 +500,23 @@
         <v>58</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Thu Jun 15 2023 07:53:22 GMT+0000 (Coordinated Universal Time)</v>
+      </c>
+      <c r="B8">
+        <v>231</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>